--- a/data.xlsx
+++ b/data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ID</t>
   </si>
@@ -26,13 +26,16 @@
     <t>Array Descending</t>
   </si>
   <si>
-    <t>4,8,56,34,12</t>
+    <t>1,2,3,4,5</t>
   </si>
   <si>
-    <t>4,8,12,34,56</t>
+    <t>1,2,3,-5,6</t>
   </si>
   <si>
-    <t>56,34,12,8,4</t>
+    <t>-5,1,2,3,6</t>
+  </si>
+  <si>
+    <t>6,3,2,1,-5</t>
   </si>
 </sst>
 </file>
@@ -77,7 +80,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -104,11 +107,21 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2"/>
+      <c r="D2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
         <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -26,16 +26,43 @@
     <t>Array Descending</t>
   </si>
   <si>
+    <t>4,8,56,34,12</t>
+  </si>
+  <si>
+    <t>4,8,12,34,56</t>
+  </si>
+  <si>
+    <t>56,34,12,8,4</t>
+  </si>
+  <si>
+    <t>43,87,23,65,7</t>
+  </si>
+  <si>
     <t>1,2,3,4,5</t>
   </si>
   <si>
-    <t>1,2,3,-5,6</t>
-  </si>
-  <si>
-    <t>-5,1,2,3,6</t>
-  </si>
-  <si>
-    <t>6,3,2,1,-5</t>
+    <t>23,345,234,7,987</t>
+  </si>
+  <si>
+    <t>5,4,3,2,1</t>
+  </si>
+  <si>
+    <t>438,34,67,456,23453</t>
+  </si>
+  <si>
+    <t>34,67,438,456,23453</t>
+  </si>
+  <si>
+    <t>23453,456,438,67,34</t>
+  </si>
+  <si>
+    <t>1,65,3,6,78</t>
+  </si>
+  <si>
+    <t>1,3,6,65,78</t>
+  </si>
+  <si>
+    <t>78,65,6,3,1</t>
   </si>
 </sst>
 </file>
@@ -80,7 +107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -107,21 +134,113 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2"/>
-      <c r="D2"/>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
         <v>7</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
